--- a/examples/example06_topo3/topo_opt_job3_runtime.xlsx
+++ b/examples/example06_topo3/topo_opt_job3_runtime.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="303">
   <si>
     <t>time</t>
   </si>
@@ -896,6 +896,15 @@
   </si>
   <si>
     <t>Wed Jul 28 14:41:22 2021</t>
+  </si>
+  <si>
+    <t>Sun Aug 15 00:08:57 2021</t>
+  </si>
+  <si>
+    <t>Sun Aug 15 00:09:17 2021</t>
+  </si>
+  <si>
+    <t>Sun Aug 15 00:09:52 2021</t>
   </si>
   <si>
     <t>B</t>
@@ -1271,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M282"/>
+  <dimension ref="A1:M285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1284,11 +1293,11 @@
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1338,7 +1347,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1379,7 +1388,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1420,7 +1429,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1461,7 +1470,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1502,7 +1511,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1543,7 +1552,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1584,7 +1593,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1625,7 +1634,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1666,7 +1675,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1707,7 +1716,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1748,7 +1757,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1789,7 +1798,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1830,7 +1839,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1871,7 +1880,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1912,7 +1921,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1953,7 +1962,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1974,13 +1983,13 @@
         <v>7.108977317810059</v>
       </c>
       <c r="I17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L17">
         <v>7.501928329467773</v>
@@ -1994,7 +2003,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -2015,13 +2024,13 @@
         <v>9.749672651290894</v>
       </c>
       <c r="I18" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J18" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K18" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L18">
         <v>17.80412340164185</v>
@@ -2035,7 +2044,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -2056,13 +2065,13 @@
         <v>17.81698346138</v>
       </c>
       <c r="I19" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J19" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K19" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L19">
         <v>31.01588892936707</v>
@@ -2076,7 +2085,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2117,7 +2126,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2158,7 +2167,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2199,7 +2208,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2240,7 +2249,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2281,7 +2290,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2322,7 +2331,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2363,7 +2372,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2404,7 +2413,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2445,7 +2454,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2486,7 +2495,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2527,7 +2536,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2568,7 +2577,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2609,7 +2618,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2650,7 +2659,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2691,7 +2700,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2732,7 +2741,7 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -2773,7 +2782,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -2814,7 +2823,7 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2855,7 +2864,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -2896,7 +2905,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2937,7 +2946,7 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -2978,7 +2987,7 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3019,7 +3028,7 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3060,7 +3069,7 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3101,7 +3110,7 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3142,7 +3151,7 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3183,7 +3192,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3224,7 +3233,7 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -3265,7 +3274,7 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -3306,7 +3315,7 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3347,7 +3356,7 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -3388,7 +3397,7 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3429,7 +3438,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -3470,7 +3479,7 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -3511,7 +3520,7 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3552,7 +3561,7 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -3593,7 +3602,7 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -3634,7 +3643,7 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3675,7 +3684,7 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3716,7 +3725,7 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -3757,7 +3766,7 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3798,7 +3807,7 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -3839,7 +3848,7 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -3880,7 +3889,7 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3921,7 +3930,7 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -3962,7 +3971,7 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -4003,7 +4012,7 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4044,7 +4053,7 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -4085,7 +4094,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -4126,7 +4135,7 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -4167,7 +4176,7 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -4208,7 +4217,7 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -4249,7 +4258,7 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4290,7 +4299,7 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4331,7 +4340,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4372,7 +4381,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -4413,7 +4422,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4454,7 +4463,7 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -4495,7 +4504,7 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -4536,7 +4545,7 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4577,7 +4586,7 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -4618,7 +4627,7 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4659,7 +4668,7 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -4700,7 +4709,7 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -4741,7 +4750,7 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -4782,7 +4791,7 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4823,7 +4832,7 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -4864,7 +4873,7 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4905,7 +4914,7 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -4946,7 +4955,7 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -4987,7 +4996,7 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -5028,7 +5037,7 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5069,7 +5078,7 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -5110,7 +5119,7 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -5151,7 +5160,7 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -5192,7 +5201,7 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -5233,7 +5242,7 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5274,7 +5283,7 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -5315,7 +5324,7 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -5356,7 +5365,7 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5397,7 +5406,7 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -5438,7 +5447,7 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -5479,7 +5488,7 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -5520,7 +5529,7 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -5561,7 +5570,7 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -5602,7 +5611,7 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -5643,7 +5652,7 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -5684,7 +5693,7 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -5725,7 +5734,7 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5766,7 +5775,7 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -5807,7 +5816,7 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -5848,7 +5857,7 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -5889,7 +5898,7 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C113">
         <v>5</v>
@@ -5930,7 +5939,7 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C114">
         <v>6</v>
@@ -5971,7 +5980,7 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6012,7 +6021,7 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6053,7 +6062,7 @@
         <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6094,7 +6103,7 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -6135,7 +6144,7 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -6176,7 +6185,7 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -6217,7 +6226,7 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C121">
         <v>3</v>
@@ -6258,7 +6267,7 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -6299,7 +6308,7 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -6340,7 +6349,7 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -6381,7 +6390,7 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -6422,7 +6431,7 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -6463,7 +6472,7 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -6504,7 +6513,7 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -6545,7 +6554,7 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -6586,7 +6595,7 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -6627,7 +6636,7 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -6668,7 +6677,7 @@
         <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -6709,7 +6718,7 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C133">
         <v>4</v>
@@ -6750,7 +6759,7 @@
         <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -6791,7 +6800,7 @@
         <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C135">
         <v>2</v>
@@ -6832,7 +6841,7 @@
         <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C136">
         <v>3</v>
@@ -6873,7 +6882,7 @@
         <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C137">
         <v>4</v>
@@ -6914,7 +6923,7 @@
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C138">
         <v>5</v>
@@ -6955,7 +6964,7 @@
         <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -6996,7 +7005,7 @@
         <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -7037,7 +7046,7 @@
         <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C141">
         <v>3</v>
@@ -7078,7 +7087,7 @@
         <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -7119,7 +7128,7 @@
         <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -7160,7 +7169,7 @@
         <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -7201,7 +7210,7 @@
         <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -7242,7 +7251,7 @@
         <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -7283,7 +7292,7 @@
         <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -7324,7 +7333,7 @@
         <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -7365,7 +7374,7 @@
         <v>160</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C149">
         <v>2</v>
@@ -7406,7 +7415,7 @@
         <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C150">
         <v>3</v>
@@ -7447,7 +7456,7 @@
         <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -7488,7 +7497,7 @@
         <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -7529,7 +7538,7 @@
         <v>164</v>
       </c>
       <c r="B153" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C153">
         <v>3</v>
@@ -7570,7 +7579,7 @@
         <v>165</v>
       </c>
       <c r="B154" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C154">
         <v>4</v>
@@ -7611,7 +7620,7 @@
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C155">
         <v>5</v>
@@ -7652,7 +7661,7 @@
         <v>167</v>
       </c>
       <c r="B156" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C156">
         <v>6</v>
@@ -7693,7 +7702,7 @@
         <v>168</v>
       </c>
       <c r="B157" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -7734,7 +7743,7 @@
         <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -7775,7 +7784,7 @@
         <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -7816,7 +7825,7 @@
         <v>171</v>
       </c>
       <c r="B160" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C160">
         <v>2</v>
@@ -7857,7 +7866,7 @@
         <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -7898,7 +7907,7 @@
         <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -7939,7 +7948,7 @@
         <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -7980,7 +7989,7 @@
         <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -8021,7 +8030,7 @@
         <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -8062,7 +8071,7 @@
         <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -8103,7 +8112,7 @@
         <v>178</v>
       </c>
       <c r="B167" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -8144,7 +8153,7 @@
         <v>179</v>
       </c>
       <c r="B168" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -8185,7 +8194,7 @@
         <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -8226,7 +8235,7 @@
         <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -8267,7 +8276,7 @@
         <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C171">
         <v>2</v>
@@ -8308,7 +8317,7 @@
         <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -8349,7 +8358,7 @@
         <v>184</v>
       </c>
       <c r="B173" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C173">
         <v>2</v>
@@ -8390,7 +8399,7 @@
         <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C174">
         <v>3</v>
@@ -8431,7 +8440,7 @@
         <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C175">
         <v>4</v>
@@ -8472,7 +8481,7 @@
         <v>187</v>
       </c>
       <c r="B176" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -8513,7 +8522,7 @@
         <v>188</v>
       </c>
       <c r="B177" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -8554,7 +8563,7 @@
         <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C178">
         <v>3</v>
@@ -8595,7 +8604,7 @@
         <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C179">
         <v>4</v>
@@ -8636,7 +8645,7 @@
         <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C180">
         <v>5</v>
@@ -8677,7 +8686,7 @@
         <v>192</v>
       </c>
       <c r="B181" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -8718,7 +8727,7 @@
         <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C182">
         <v>2</v>
@@ -8759,7 +8768,7 @@
         <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C183">
         <v>3</v>
@@ -8800,7 +8809,7 @@
         <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -8841,7 +8850,7 @@
         <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C185">
         <v>2</v>
@@ -8882,7 +8891,7 @@
         <v>197</v>
       </c>
       <c r="B186" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C186">
         <v>3</v>
@@ -8923,7 +8932,7 @@
         <v>198</v>
       </c>
       <c r="B187" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -8964,7 +8973,7 @@
         <v>199</v>
       </c>
       <c r="B188" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C188">
         <v>2</v>
@@ -9005,7 +9014,7 @@
         <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C189">
         <v>3</v>
@@ -9046,7 +9055,7 @@
         <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -9087,7 +9096,7 @@
         <v>202</v>
       </c>
       <c r="B191" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C191">
         <v>2</v>
@@ -9128,7 +9137,7 @@
         <v>203</v>
       </c>
       <c r="B192" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C192">
         <v>3</v>
@@ -9169,7 +9178,7 @@
         <v>204</v>
       </c>
       <c r="B193" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -9210,7 +9219,7 @@
         <v>205</v>
       </c>
       <c r="B194" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -9251,7 +9260,7 @@
         <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C195">
         <v>3</v>
@@ -9292,7 +9301,7 @@
         <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C196">
         <v>4</v>
@@ -9333,7 +9342,7 @@
         <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C197">
         <v>5</v>
@@ -9374,7 +9383,7 @@
         <v>209</v>
       </c>
       <c r="B198" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C198">
         <v>6</v>
@@ -9415,7 +9424,7 @@
         <v>210</v>
       </c>
       <c r="B199" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -9456,7 +9465,7 @@
         <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -9497,7 +9506,7 @@
         <v>212</v>
       </c>
       <c r="B201" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -9538,7 +9547,7 @@
         <v>213</v>
       </c>
       <c r="B202" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C202">
         <v>2</v>
@@ -9579,7 +9588,7 @@
         <v>214</v>
       </c>
       <c r="B203" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -9620,7 +9629,7 @@
         <v>215</v>
       </c>
       <c r="B204" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C204">
         <v>2</v>
@@ -9661,7 +9670,7 @@
         <v>216</v>
       </c>
       <c r="B205" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C205">
         <v>3</v>
@@ -9702,7 +9711,7 @@
         <v>217</v>
       </c>
       <c r="B206" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -9743,7 +9752,7 @@
         <v>218</v>
       </c>
       <c r="B207" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C207">
         <v>2</v>
@@ -9784,7 +9793,7 @@
         <v>219</v>
       </c>
       <c r="B208" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -9825,7 +9834,7 @@
         <v>220</v>
       </c>
       <c r="B209" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C209">
         <v>2</v>
@@ -9866,7 +9875,7 @@
         <v>221</v>
       </c>
       <c r="B210" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -9907,7 +9916,7 @@
         <v>222</v>
       </c>
       <c r="B211" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C211">
         <v>2</v>
@@ -9948,7 +9957,7 @@
         <v>223</v>
       </c>
       <c r="B212" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -9989,7 +9998,7 @@
         <v>224</v>
       </c>
       <c r="B213" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -10030,7 +10039,7 @@
         <v>225</v>
       </c>
       <c r="B214" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -10071,7 +10080,7 @@
         <v>226</v>
       </c>
       <c r="B215" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C215">
         <v>2</v>
@@ -10112,7 +10121,7 @@
         <v>227</v>
       </c>
       <c r="B216" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C216">
         <v>3</v>
@@ -10153,7 +10162,7 @@
         <v>228</v>
       </c>
       <c r="B217" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C217">
         <v>4</v>
@@ -10194,7 +10203,7 @@
         <v>229</v>
       </c>
       <c r="B218" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -10235,7 +10244,7 @@
         <v>230</v>
       </c>
       <c r="B219" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C219">
         <v>2</v>
@@ -10276,7 +10285,7 @@
         <v>231</v>
       </c>
       <c r="B220" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C220">
         <v>3</v>
@@ -10317,7 +10326,7 @@
         <v>232</v>
       </c>
       <c r="B221" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C221">
         <v>4</v>
@@ -10358,7 +10367,7 @@
         <v>233</v>
       </c>
       <c r="B222" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -10399,7 +10408,7 @@
         <v>234</v>
       </c>
       <c r="B223" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -10440,7 +10449,7 @@
         <v>235</v>
       </c>
       <c r="B224" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C224">
         <v>2</v>
@@ -10481,7 +10490,7 @@
         <v>236</v>
       </c>
       <c r="B225" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C225">
         <v>3</v>
@@ -10522,7 +10531,7 @@
         <v>237</v>
       </c>
       <c r="B226" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -10563,7 +10572,7 @@
         <v>238</v>
       </c>
       <c r="B227" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C227">
         <v>2</v>
@@ -10604,7 +10613,7 @@
         <v>239</v>
       </c>
       <c r="B228" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C228">
         <v>3</v>
@@ -10645,7 +10654,7 @@
         <v>240</v>
       </c>
       <c r="B229" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -10686,7 +10695,7 @@
         <v>241</v>
       </c>
       <c r="B230" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -10727,7 +10736,7 @@
         <v>242</v>
       </c>
       <c r="B231" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C231">
         <v>3</v>
@@ -10768,7 +10777,7 @@
         <v>243</v>
       </c>
       <c r="B232" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -10809,7 +10818,7 @@
         <v>244</v>
       </c>
       <c r="B233" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C233">
         <v>2</v>
@@ -10850,7 +10859,7 @@
         <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -10891,7 +10900,7 @@
         <v>246</v>
       </c>
       <c r="B235" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -10932,7 +10941,7 @@
         <v>247</v>
       </c>
       <c r="B236" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C236">
         <v>2</v>
@@ -10973,7 +10982,7 @@
         <v>248</v>
       </c>
       <c r="B237" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C237">
         <v>3</v>
@@ -11014,7 +11023,7 @@
         <v>249</v>
       </c>
       <c r="B238" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C238">
         <v>4</v>
@@ -11055,7 +11064,7 @@
         <v>250</v>
       </c>
       <c r="B239" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C239">
         <v>5</v>
@@ -11096,7 +11105,7 @@
         <v>251</v>
       </c>
       <c r="B240" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C240">
         <v>6</v>
@@ -11137,7 +11146,7 @@
         <v>252</v>
       </c>
       <c r="B241" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -11178,7 +11187,7 @@
         <v>253</v>
       </c>
       <c r="B242" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -11219,7 +11228,7 @@
         <v>254</v>
       </c>
       <c r="B243" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -11260,7 +11269,7 @@
         <v>255</v>
       </c>
       <c r="B244" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C244">
         <v>2</v>
@@ -11301,7 +11310,7 @@
         <v>256</v>
       </c>
       <c r="B245" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -11342,7 +11351,7 @@
         <v>257</v>
       </c>
       <c r="B246" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C246">
         <v>2</v>
@@ -11383,7 +11392,7 @@
         <v>258</v>
       </c>
       <c r="B247" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C247">
         <v>3</v>
@@ -11424,7 +11433,7 @@
         <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -11465,7 +11474,7 @@
         <v>260</v>
       </c>
       <c r="B249" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C249">
         <v>2</v>
@@ -11506,7 +11515,7 @@
         <v>261</v>
       </c>
       <c r="B250" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -11547,7 +11556,7 @@
         <v>262</v>
       </c>
       <c r="B251" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C251">
         <v>2</v>
@@ -11588,7 +11597,7 @@
         <v>263</v>
       </c>
       <c r="B252" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -11629,7 +11638,7 @@
         <v>264</v>
       </c>
       <c r="B253" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C253">
         <v>2</v>
@@ -11670,7 +11679,7 @@
         <v>265</v>
       </c>
       <c r="B254" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -11711,7 +11720,7 @@
         <v>266</v>
       </c>
       <c r="B255" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C255">
         <v>2</v>
@@ -11752,7 +11761,7 @@
         <v>267</v>
       </c>
       <c r="B256" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -11793,7 +11802,7 @@
         <v>268</v>
       </c>
       <c r="B257" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C257">
         <v>2</v>
@@ -11834,7 +11843,7 @@
         <v>269</v>
       </c>
       <c r="B258" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C258">
         <v>3</v>
@@ -11875,7 +11884,7 @@
         <v>270</v>
       </c>
       <c r="B259" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C259">
         <v>4</v>
@@ -11916,7 +11925,7 @@
         <v>271</v>
       </c>
       <c r="B260" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -11957,7 +11966,7 @@
         <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C261">
         <v>2</v>
@@ -11998,7 +12007,7 @@
         <v>273</v>
       </c>
       <c r="B262" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C262">
         <v>3</v>
@@ -12039,7 +12048,7 @@
         <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C263">
         <v>4</v>
@@ -12080,7 +12089,7 @@
         <v>275</v>
       </c>
       <c r="B264" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C264">
         <v>5</v>
@@ -12121,7 +12130,7 @@
         <v>276</v>
       </c>
       <c r="B265" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -12162,7 +12171,7 @@
         <v>277</v>
       </c>
       <c r="B266" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C266">
         <v>2</v>
@@ -12203,7 +12212,7 @@
         <v>278</v>
       </c>
       <c r="B267" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C267">
         <v>3</v>
@@ -12244,7 +12253,7 @@
         <v>279</v>
       </c>
       <c r="B268" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -12285,7 +12294,7 @@
         <v>280</v>
       </c>
       <c r="B269" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C269">
         <v>2</v>
@@ -12326,7 +12335,7 @@
         <v>281</v>
       </c>
       <c r="B270" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C270">
         <v>3</v>
@@ -12367,7 +12376,7 @@
         <v>282</v>
       </c>
       <c r="B271" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -12408,7 +12417,7 @@
         <v>283</v>
       </c>
       <c r="B272" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C272">
         <v>2</v>
@@ -12449,7 +12458,7 @@
         <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C273">
         <v>3</v>
@@ -12490,7 +12499,7 @@
         <v>285</v>
       </c>
       <c r="B274" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -12531,7 +12540,7 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C275">
         <v>2</v>
@@ -12572,7 +12581,7 @@
         <v>287</v>
       </c>
       <c r="B276" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C276">
         <v>3</v>
@@ -12613,7 +12622,7 @@
         <v>288</v>
       </c>
       <c r="B277" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -12654,7 +12663,7 @@
         <v>289</v>
       </c>
       <c r="B278" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C278">
         <v>2</v>
@@ -12695,7 +12704,7 @@
         <v>290</v>
       </c>
       <c r="B279" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C279">
         <v>3</v>
@@ -12736,7 +12745,7 @@
         <v>291</v>
       </c>
       <c r="B280" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C280">
         <v>4</v>
@@ -12777,7 +12786,7 @@
         <v>292</v>
       </c>
       <c r="B281" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C281">
         <v>5</v>
@@ -12818,7 +12827,7 @@
         <v>293</v>
       </c>
       <c r="B282" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C282">
         <v>6</v>
@@ -12852,6 +12861,129 @@
       </c>
       <c r="M282">
         <v>96.2886069000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13">
+      <c r="A283" t="s">
+        <v>294</v>
+      </c>
+      <c r="B283" t="s">
+        <v>298</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+      <c r="E283">
+        <v>1896</v>
+      </c>
+      <c r="F283">
+        <v>8919</v>
+      </c>
+      <c r="G283">
+        <v>7673</v>
+      </c>
+      <c r="H283">
+        <v>7.2536482</v>
+      </c>
+      <c r="I283">
+        <v>12196</v>
+      </c>
+      <c r="J283">
+        <v>64888</v>
+      </c>
+      <c r="K283">
+        <v>0.4127027999999999</v>
+      </c>
+      <c r="L283">
+        <v>17.3905304</v>
+      </c>
+      <c r="M283">
+        <v>17.9630425</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13">
+      <c r="A284" t="s">
+        <v>295</v>
+      </c>
+      <c r="B284" t="s">
+        <v>298</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+      <c r="E284">
+        <v>12196</v>
+      </c>
+      <c r="F284">
+        <v>64888</v>
+      </c>
+      <c r="G284">
+        <v>18886</v>
+      </c>
+      <c r="H284">
+        <v>9.7202813</v>
+      </c>
+      <c r="I284">
+        <v>51359</v>
+      </c>
+      <c r="J284">
+        <v>278770</v>
+      </c>
+      <c r="K284">
+        <v>9.213788299999997</v>
+      </c>
+      <c r="L284">
+        <v>36.92930509999999</v>
+      </c>
+      <c r="M284">
+        <v>54.897037</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13">
+      <c r="A285" t="s">
+        <v>296</v>
+      </c>
+      <c r="B285" t="s">
+        <v>298</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>1896</v>
+      </c>
+      <c r="F285">
+        <v>8919</v>
+      </c>
+      <c r="G285">
+        <v>4067</v>
+      </c>
+      <c r="H285">
+        <v>7.1520425</v>
+      </c>
+      <c r="I285">
+        <v>9896</v>
+      </c>
+      <c r="J285">
+        <v>51903</v>
+      </c>
+      <c r="K285">
+        <v>0.3681405999999896</v>
+      </c>
+      <c r="L285">
+        <v>17.4716291</v>
+      </c>
+      <c r="M285">
+        <v>17.62895459999999</v>
       </c>
     </row>
   </sheetData>
